--- a/DATA_goal/Junction_Flooding_342.xlsx
+++ b/DATA_goal/Junction_Flooding_342.xlsx
@@ -443,15 +443,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -468,7 +468,7 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -655,103 +655,103 @@
         <v>45023.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.45</v>
+        <v>24.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.07</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.18</v>
+        <v>51.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.28</v>
+        <v>42.83</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.46</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.15</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.14</v>
+        <v>21.39</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.71</v>
+        <v>27.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>28.45</v>
+        <v>284.51</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.34</v>
+        <v>53.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.56</v>
+        <v>35.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.49</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.2</v>
+        <v>31.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.11</v>
+        <v>21.12</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.73</v>
+        <v>57.29</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45023.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.49</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.33</v>
+        <v>43.3</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.59</v>
+        <v>35.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.24</v>
+        <v>62.39</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.19</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.24</v>
+        <v>22.38</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.33</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>23.3</v>
+        <v>233.04</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.42</v>
+        <v>44.2</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.95</v>
+        <v>29.55</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.67</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.98</v>
+        <v>29.85</v>
       </c>
       <c r="AA3" s="4" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>5.64</v>
+        <v>56.41</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45023.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.26</v>
+        <v>22.6</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.75</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.57</v>
+        <v>35.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.7</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.86</v>
+        <v>118.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.32</v>
+        <v>23.25</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.45</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.23</v>
+        <v>32.3</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.25</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45023.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.15</v>
+        <v>41.51</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.44</v>
+        <v>34.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.73</v>
+        <v>57.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.49</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.38</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.67</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.16</v>
+        <v>221.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.2</v>
+        <v>42.01</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.78</v>
+        <v>27.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.17</v>
+        <v>51.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_342.xlsx
+++ b/DATA_goal/Junction_Flooding_342.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45023.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.5</v>
+        <v>24.502</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>17.07</v>
+        <v>17.071</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.27</v>
+        <v>4.266</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>51.77</v>
+        <v>51.765</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>42.83</v>
+        <v>42.826</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>19.28</v>
+        <v>19.282</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>64.65000000000001</v>
+        <v>64.646</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.71</v>
+        <v>12.708</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.6</v>
+        <v>19.604</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>20.15</v>
+        <v>20.148</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>21.39</v>
+        <v>21.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.16</v>
+        <v>6.157</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>27.06</v>
+        <v>27.062</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.864</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.99</v>
+        <v>3.991</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.607</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>284.51</v>
+        <v>284.514</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>53.42</v>
+        <v>53.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>35.64</v>
+        <v>35.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.49</v>
+        <v>18.491</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.496</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.96</v>
+        <v>31.956</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.958</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>21.12</v>
+        <v>21.117</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>57.29</v>
+        <v>57.291</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45023.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.18</v>
+        <v>20.178</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.49</v>
+        <v>14.493</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.94</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>43.3</v>
+        <v>43.297</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>35.86</v>
+        <v>35.858</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>15.88</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>62.39</v>
+        <v>62.388</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.67</v>
+        <v>10.672</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.19</v>
+        <v>16.186</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.18</v>
+        <v>17.179</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>18.2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.07</v>
+        <v>5.073</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.38</v>
+        <v>22.379</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.33</v>
+        <v>13.325</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.693</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.173</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>233.04</v>
+        <v>233.039</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>44.2</v>
+        <v>44.197</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.55</v>
+        <v>29.548</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.67</v>
+        <v>15.674</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.05</v>
+        <v>2.053</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>29.85</v>
+        <v>29.846</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.54</v>
+        <v>11.539</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.52</v>
+        <v>13.523</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.07</v>
+        <v>18.065</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>56.41</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.19</v>
+        <v>8.186</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.22</v>
+        <v>18.223</v>
       </c>
     </row>
     <row r="4">
@@ -863,67 +863,67 @@
         <v>45023.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.57</v>
+        <v>10.569</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.5</v>
+        <v>7.497</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.127</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.6</v>
+        <v>22.603</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.75</v>
+        <v>18.748</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.32</v>
+        <v>8.318</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.68</v>
+        <v>35.683</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.8</v>
+        <v>12.798</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.56</v>
+        <v>5.556</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.43</v>
+        <v>8.429</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.964</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.5</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.66</v>
+        <v>2.659</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.7</v>
+        <v>11.695</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.09</v>
+        <v>7.088</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.636</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.59</v>
+        <v>118.586</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.25</v>
+        <v>23.246</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>15.45</v>
@@ -932,34 +932,34 @@
         <v>8.279999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.07</v>
+        <v>1.067</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.55</v>
+        <v>16.547</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.1</v>
+        <v>6.101</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.14</v>
+        <v>7.141</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>9.461</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.3</v>
+        <v>32.298</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.25</v>
+        <v>4.248</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>17.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45023.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>47.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.14</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.64</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>255.93</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.18</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.14</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_342.xlsx
+++ b/DATA_goal/Junction_Flooding_342.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,37 +967,37 @@
         <v>45023.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.11</v>
+        <v>14.105</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.51</v>
+        <v>41.511</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.38</v>
+        <v>34.377</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.26</v>
+        <v>57.264</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.3</v>
+        <v>10.296</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.49</v>
+        <v>15.486</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.59</v>
+        <v>16.587</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>17.56</v>
@@ -1006,64 +1006,168 @@
         <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.38</v>
+        <v>21.378</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.67</v>
+        <v>12.665</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.866</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.58</v>
+        <v>221.577</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.01</v>
+        <v>42.013</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.22</v>
+        <v>28.221</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.01</v>
+        <v>15.009</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.96</v>
+        <v>1.955</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.79</v>
+        <v>27.791</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>10.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.8</v>
+        <v>12.802</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.49</v>
+        <v>17.487</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.68</v>
+        <v>51.683</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.83</v>
+        <v>7.825</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45023.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>255.93</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>61.14</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_342.xlsx
+++ b/DATA_goal/Junction_Flooding_342.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,37 +967,37 @@
         <v>45023.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.217</v>
+        <v>19.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.105</v>
+        <v>14.11</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.511</v>
+        <v>41.51</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.377</v>
+        <v>34.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.123</v>
+        <v>15.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.264</v>
+        <v>57.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.269</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.296</v>
+        <v>10.3</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.486</v>
+        <v>15.49</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.587</v>
+        <v>16.59</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>17.56</v>
@@ -1006,168 +1006,64 @@
         <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.038</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.378</v>
+        <v>21.38</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.665</v>
+        <v>12.67</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.577</v>
+        <v>221.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.013</v>
+        <v>42.01</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.881</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.221</v>
+        <v>28.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.009</v>
+        <v>15.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.955</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.791</v>
+        <v>27.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.261</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>10.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.802</v>
+        <v>12.8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.487</v>
+        <v>17.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.683</v>
+        <v>51.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.825</v>
+        <v>7.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.354</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45023.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>47.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.14</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.64</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>255.93</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.18</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.14</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.96</v>
+        <v>17.35</v>
       </c>
     </row>
   </sheetData>
